--- a/Data/wholeGE_LRR.xlsx
+++ b/Data/wholeGE_LRR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcald\Documents\PhDThesis_Chapter4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AD1445-1F82-406C-A222-92976E402A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5158ABE6-E52C-4DE0-9668-F81DAD96FB2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2175" windowWidth="21840" windowHeight="13140" xr2:uid="{CA3B073B-3243-41A6-8CF0-FBEB048CD40C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA3B073B-3243-41A6-8CF0-FBEB048CD40C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="31">
   <si>
     <t>Prey</t>
   </si>
@@ -149,15 +149,12 @@
   <si>
     <t>T_24 +1 cell</t>
   </si>
-  <si>
-    <t>NA</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,12 +168,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -211,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -234,8 +225,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,7 +562,7 @@
   <dimension ref="A1:J321"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,10 +619,6 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <f>LN(J2/G2)</f>
-        <v>-8.8837831124478868</v>
-      </c>
       <c r="G2" s="2">
         <v>7214.0306666666656</v>
       </c>
@@ -656,10 +646,6 @@
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E4" si="0">LN(J3/G3)</f>
-        <v>-1.6415117946667594</v>
-      </c>
       <c r="G3" s="2">
         <v>7214.0306666666656</v>
       </c>
@@ -670,7 +656,7 @@
         <v>1396.2639999999999</v>
       </c>
       <c r="J3" s="2">
-        <f t="shared" ref="J3:J4" si="1">I3+1</f>
+        <f t="shared" ref="J3:J4" si="0">I3+1</f>
         <v>1397.2639999999999</v>
       </c>
     </row>
@@ -687,10 +673,6 @@
       <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.8837831124478868</v>
-      </c>
       <c r="G4" s="2">
         <v>7214.0306666666656</v>
       </c>
@@ -701,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -719,8 +701,8 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <f>AVERAGE(E2:E4)</f>
-        <v>-6.4696926731875104</v>
+        <f>LN(I5/G5)</f>
+        <v>-2.7408400239252009</v>
       </c>
       <c r="G5" s="2">
         <f>AVERAGE(H2:H4)</f>
@@ -770,10 +752,6 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <f>LN(J7/G7)</f>
-        <v>-9.0333148464188522</v>
-      </c>
       <c r="G7" s="2">
         <v>8377.5840000000007</v>
       </c>
@@ -801,10 +779,6 @@
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:E9" si="2">LN(J8/G8)</f>
-        <v>-1.7910435286377233</v>
-      </c>
       <c r="G8" s="2">
         <v>8377.5840000000007</v>
       </c>
@@ -815,7 +789,7 @@
         <v>1396.2639999999999</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" ref="J8:J9" si="3">I8+1</f>
+        <f t="shared" ref="J8:J9" si="1">I8+1</f>
         <v>1397.2639999999999</v>
       </c>
     </row>
@@ -832,10 +806,6 @@
       <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="2"/>
-        <v>-9.0333148464188522</v>
-      </c>
       <c r="G9" s="2">
         <v>8377.5840000000007</v>
       </c>
@@ -846,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -864,8 +834,8 @@
         <v>4</v>
       </c>
       <c r="E10" s="2">
-        <f>AVERAGE(E7:E9)</f>
-        <v>-6.6192244071584767</v>
+        <f>LN(I10/G10)</f>
+        <v>-2.890371757896165</v>
       </c>
       <c r="G10" s="2">
         <f>AVERAGE(H7:H9)</f>
@@ -915,10 +885,6 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
-        <f>LN(J12/G12)</f>
-        <v>-7.6470204852989605</v>
-      </c>
       <c r="G12" s="2">
         <v>2094.3959999999997</v>
       </c>
@@ -946,10 +912,6 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" ref="E13:E14" si="4">LN(J13/G13)</f>
-        <v>-7.6470204852989605</v>
-      </c>
       <c r="G13" s="2">
         <v>2094.3959999999997</v>
       </c>
@@ -960,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" ref="J13:J14" si="5">I13+1</f>
+        <f t="shared" ref="J13:J14" si="2">I13+1</f>
         <v>1</v>
       </c>
     </row>
@@ -977,10 +939,6 @@
       <c r="D14" s="2">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" si="4"/>
-        <v>-7.6470204852989605</v>
-      </c>
       <c r="G14" s="2">
         <v>2094.3959999999997</v>
       </c>
@@ -991,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1009,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="2">
-        <f>AVERAGE(E12:E14)</f>
+        <f>LN(I15/G15)</f>
         <v>-7.6470204852989605</v>
       </c>
       <c r="G15" s="2">
@@ -1059,9 +1017,7 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
+      <c r="E17" s="5"/>
       <c r="G17" s="2">
         <v>0</v>
       </c>
@@ -1089,9 +1045,7 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
+      <c r="E18" s="5"/>
       <c r="G18" s="2">
         <v>0</v>
       </c>
@@ -1102,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" ref="J18:J19" si="6">I18+1</f>
+        <f t="shared" ref="J18:J19" si="3">I18+1</f>
         <v>1</v>
       </c>
     </row>
@@ -1119,9 +1073,7 @@
       <c r="D19" s="2">
         <v>3</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
+      <c r="E19" s="5"/>
       <c r="G19" s="2">
         <v>0</v>
       </c>
@@ -1132,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1149,7 +1101,7 @@
       <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="9">
         <v>0</v>
       </c>
       <c r="G20" s="2">
@@ -1199,9 +1151,7 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
+      <c r="E22" s="5"/>
       <c r="G22" s="2">
         <v>0</v>
       </c>
@@ -1229,9 +1179,7 @@
       <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
+      <c r="E23" s="5"/>
       <c r="G23" s="2">
         <v>0</v>
       </c>
@@ -1242,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" ref="J23:J24" si="7">I23+1</f>
+        <f t="shared" ref="J23:J24" si="4">I23+1</f>
         <v>1</v>
       </c>
     </row>
@@ -1259,9 +1207,7 @@
       <c r="D24" s="2">
         <v>3</v>
       </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
+      <c r="E24" s="5"/>
       <c r="G24" s="2">
         <v>0</v>
       </c>
@@ -1272,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1339,10 +1285,6 @@
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="2">
-        <f>LN(I27/G27)</f>
-        <v>-1.2992829841302609</v>
-      </c>
       <c r="G27" s="2">
         <v>15358.904</v>
       </c>
@@ -1366,10 +1308,6 @@
       <c r="D28" s="2">
         <v>2</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" ref="E28:E29" si="8">LN(I28/G28)</f>
-        <v>-0.78845736036427017</v>
-      </c>
       <c r="G28" s="2">
         <v>15358.904</v>
       </c>
@@ -1393,10 +1331,6 @@
       <c r="D29" s="2">
         <v>3</v>
       </c>
-      <c r="E29" s="2">
-        <f t="shared" si="8"/>
-        <v>-0.6061358035703156</v>
-      </c>
       <c r="G29" s="2">
         <v>15358.904</v>
       </c>
@@ -1421,8 +1355,8 @@
         <v>4</v>
       </c>
       <c r="E30" s="2">
-        <f>AVERAGE(E27:E29)</f>
-        <v>-0.89795871602161548</v>
+        <f>LN(I30/G30)</f>
+        <v>-0.85745023185122182</v>
       </c>
       <c r="G30" s="2">
         <f>AVERAGE(H27:H29)</f>
@@ -1472,10 +1406,6 @@
       <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="2">
-        <f>LN(J32/G32)</f>
-        <v>-8.9761564325789021</v>
-      </c>
       <c r="G32" s="2">
         <v>7912.1626666666662</v>
       </c>
@@ -1503,10 +1433,6 @@
       <c r="D33" s="2">
         <v>2</v>
       </c>
-      <c r="E33" s="2">
-        <f t="shared" ref="E33:E34" si="9">LN(J33/G33)</f>
-        <v>-8.9761564325789021</v>
-      </c>
       <c r="G33" s="2">
         <v>7912.1626666666662</v>
       </c>
@@ -1517,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" ref="J33:J34" si="10">I33+1</f>
+        <f t="shared" ref="J33:J34" si="5">I33+1</f>
         <v>1</v>
       </c>
     </row>
@@ -1534,10 +1460,6 @@
       <c r="D34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" si="9"/>
-        <v>-8.9761564325789021</v>
-      </c>
       <c r="G34" s="2">
         <v>7912.1626666666662</v>
       </c>
@@ -1548,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1566,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="2">
-        <f>AVERAGE(E32:E34)</f>
+        <f>LN(I35/G35)</f>
         <v>-8.9761564325789021</v>
       </c>
       <c r="G35" s="2">
@@ -1616,10 +1538,6 @@
       <c r="D37" s="2">
         <v>1</v>
       </c>
-      <c r="E37" s="2">
-        <f>LN(J37/G37)</f>
-        <v>-7.5292374496425767</v>
-      </c>
       <c r="G37" s="2">
         <v>1861.6853333333331</v>
       </c>
@@ -1647,10 +1565,6 @@
       <c r="D38" s="2">
         <v>2</v>
       </c>
-      <c r="E38" s="2">
-        <f t="shared" ref="E38:E39" si="11">LN(J38/G38)</f>
-        <v>0.11826038633106548</v>
-      </c>
       <c r="G38" s="2">
         <v>1861.6853333333331</v>
       </c>
@@ -1661,7 +1575,7 @@
         <v>2094.3959999999997</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" ref="J38:J39" si="12">I38+1</f>
+        <f t="shared" ref="J38:J39" si="6">I38+1</f>
         <v>2095.3959999999997</v>
       </c>
     </row>
@@ -1678,10 +1592,6 @@
       <c r="D39" s="2">
         <v>3</v>
       </c>
-      <c r="E39" s="2">
-        <f>LN(J39/G39)</f>
-        <v>-7.5292374496425767</v>
-      </c>
       <c r="G39" s="2">
         <v>1861.6853333333331</v>
       </c>
@@ -1692,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -1710,8 +1620,8 @@
         <v>4</v>
       </c>
       <c r="E40" s="2">
-        <f>AVERAGE(E37:E39)</f>
-        <v>-4.9800715043180297</v>
+        <f>LN(I40/G40)</f>
+        <v>-0.98082925301172619</v>
       </c>
       <c r="G40" s="2">
         <f>AVERAGE(H37:H39)</f>
@@ -1761,10 +1671,6 @@
       <c r="D42" s="2">
         <v>1</v>
       </c>
-      <c r="E42" s="2">
-        <f>LN(I42/G42)</f>
-        <v>-0.68024377572403771</v>
-      </c>
       <c r="G42" s="2">
         <v>35837.44266666667</v>
       </c>
@@ -1788,10 +1694,6 @@
       <c r="D43" s="2">
         <v>2</v>
       </c>
-      <c r="E43" s="2">
-        <f t="shared" ref="E43:E44" si="13">LN(I43/G43)</f>
-        <v>-0.44183275227903934</v>
-      </c>
       <c r="G43" s="2">
         <v>35837.44266666667</v>
       </c>
@@ -1815,10 +1717,6 @@
       <c r="D44" s="2">
         <v>3</v>
       </c>
-      <c r="E44" s="2">
-        <f t="shared" si="13"/>
-        <v>-0.53714293208336417</v>
-      </c>
       <c r="G44" s="2">
         <v>35837.44266666667</v>
       </c>
@@ -1843,8 +1741,8 @@
         <v>4</v>
       </c>
       <c r="E45" s="2">
-        <f>AVERAGE(E42:E44)</f>
-        <v>-0.55307315336214702</v>
+        <f>LN(I45/G45)</f>
+        <v>-0.54831623268148943</v>
       </c>
       <c r="G45" s="2">
         <f>AVERAGE(H42:H44)</f>
@@ -1894,10 +1792,6 @@
       <c r="D47" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="2">
-        <f>LN(J47/G47)</f>
-        <v>-0.80335200859919853</v>
-      </c>
       <c r="G47" s="2">
         <v>15591.614666666666</v>
       </c>
@@ -1925,10 +1819,6 @@
       <c r="D48" s="2">
         <v>2</v>
       </c>
-      <c r="E48" s="2">
-        <f t="shared" ref="E48:E49" si="14">LN(J48/G48)</f>
-        <v>-9.654488527353708</v>
-      </c>
       <c r="G48" s="2">
         <v>15591.614666666666</v>
       </c>
@@ -1939,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" ref="J48:J49" si="15">I48+1</f>
+        <f t="shared" ref="J48:J49" si="7">I48+1</f>
         <v>1</v>
       </c>
     </row>
@@ -1956,10 +1846,6 @@
       <c r="D49" s="2">
         <v>3</v>
       </c>
-      <c r="E49" s="2">
-        <f t="shared" si="14"/>
-        <v>-9.654488527353708</v>
-      </c>
       <c r="G49" s="2">
         <v>15591.614666666666</v>
       </c>
@@ -1970,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1988,8 +1874,8 @@
         <v>4</v>
       </c>
       <c r="E50" s="2">
-        <f>AVERAGE(E47:E49)</f>
-        <v>-6.7041096877688711</v>
+        <f>LN(I50/G50)</f>
+        <v>-1.9021075263969205</v>
       </c>
       <c r="G50" s="2">
         <f>AVERAGE(H47:H49)</f>
@@ -2039,10 +1925,6 @@
       <c r="D52" s="2">
         <v>1</v>
       </c>
-      <c r="E52" s="2">
-        <f>LN(J52/G52)</f>
-        <v>-8.5852901238918911</v>
-      </c>
       <c r="G52" s="2">
         <v>5352.3453333333327</v>
       </c>
@@ -2070,10 +1952,6 @@
       <c r="D53" s="2">
         <v>2</v>
       </c>
-      <c r="E53" s="2">
-        <f t="shared" ref="E53:E54" si="16">LN(J53/G53)</f>
-        <v>-8.5852901238918911</v>
-      </c>
       <c r="G53" s="2">
         <v>5352.3453333333327</v>
       </c>
@@ -2084,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <f t="shared" ref="J53:J54" si="17">I53+1</f>
+        <f t="shared" ref="J53:J54" si="8">I53+1</f>
         <v>1</v>
       </c>
     </row>
@@ -2101,10 +1979,6 @@
       <c r="D54" s="2">
         <v>3</v>
       </c>
-      <c r="E54" s="2">
-        <f t="shared" si="16"/>
-        <v>-0.24488375421268602</v>
-      </c>
       <c r="G54" s="2">
         <v>5352.3453333333327</v>
       </c>
@@ -2115,7 +1989,7 @@
         <v>4188.7919999999995</v>
       </c>
       <c r="J54" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>4189.7919999999995</v>
       </c>
     </row>
@@ -2133,8 +2007,8 @@
         <v>4</v>
       </c>
       <c r="E55" s="2">
-        <f>AVERAGE(E52:E54)</f>
-        <v>-5.8051546673321566</v>
+        <f>LN(I55/G55)</f>
+        <v>-1.3437347467010947</v>
       </c>
       <c r="G55" s="2">
         <f>AVERAGE(H52:H54)</f>
@@ -2184,10 +2058,6 @@
       <c r="D57" s="2">
         <v>1</v>
       </c>
-      <c r="E57" s="2">
-        <f>LN(I57/G57)</f>
-        <v>-0.51082562376599072</v>
-      </c>
       <c r="G57" s="2">
         <v>2327.1066666666666</v>
       </c>
@@ -2211,10 +2081,6 @@
       <c r="D58" s="2">
         <v>2</v>
       </c>
-      <c r="E58" s="2">
-        <f t="shared" ref="E58:E59" si="18">LN(I58/G58)</f>
-        <v>0.58778666490211895</v>
-      </c>
       <c r="G58" s="2">
         <v>2327.1066666666666</v>
       </c>
@@ -2238,10 +2104,6 @@
       <c r="D59" s="2">
         <v>3</v>
       </c>
-      <c r="E59" s="2">
-        <f t="shared" si="18"/>
-        <v>-0.10536051565782641</v>
-      </c>
       <c r="G59" s="2">
         <v>2327.1066666666666</v>
       </c>
@@ -2266,8 +2128,8 @@
         <v>4</v>
       </c>
       <c r="E60" s="2">
-        <f>AVERAGE(E57:E59)</f>
-        <v>-9.4664915072327268E-3</v>
+        <f>LN(I60/G60)</f>
+        <v>9.5310179804324741E-2</v>
       </c>
       <c r="G60" s="2">
         <f>AVERAGE(H57:H59)</f>
@@ -2317,10 +2179,6 @@
       <c r="D62" s="2">
         <v>1</v>
       </c>
-      <c r="E62" s="2">
-        <f>LN(J62/G62)</f>
-        <v>-8.222384630202523</v>
-      </c>
       <c r="G62" s="2">
         <v>3723.3706666666662</v>
       </c>
@@ -2348,10 +2206,6 @@
       <c r="D63" s="2">
         <v>2</v>
       </c>
-      <c r="E63" s="2">
-        <f t="shared" ref="E63:E64" si="19">LN(J63/G63)</f>
-        <v>-8.222384630202523</v>
-      </c>
       <c r="G63" s="2">
         <v>3723.3706666666662</v>
       </c>
@@ -2362,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" ref="J63:J64" si="20">I63+1</f>
+        <f t="shared" ref="J63:J64" si="9">I63+1</f>
         <v>1</v>
       </c>
     </row>
@@ -2379,10 +2233,6 @@
       <c r="D64" s="2">
         <v>3</v>
       </c>
-      <c r="E64" s="2">
-        <f t="shared" si="19"/>
-        <v>-8.222384630202523</v>
-      </c>
       <c r="G64" s="2">
         <v>3723.3706666666662</v>
       </c>
@@ -2393,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -2411,7 +2261,7 @@
         <v>4</v>
       </c>
       <c r="E65" s="2">
-        <f>AVERAGE(E62:E64)</f>
+        <f>LN(I65/G65)</f>
         <v>-8.222384630202523</v>
       </c>
       <c r="G65" s="2">
@@ -2461,10 +2311,6 @@
       <c r="D67" s="2">
         <v>1</v>
       </c>
-      <c r="E67" s="2">
-        <f>LN(I67/G67)</f>
-        <v>0.55961578793542277</v>
-      </c>
       <c r="G67" s="2">
         <v>2792.5279999999998</v>
       </c>
@@ -2488,10 +2334,6 @@
       <c r="D68" s="2">
         <v>2</v>
       </c>
-      <c r="E68" s="2">
-        <f t="shared" ref="E68:E69" si="21">LN(I68/G68)</f>
-        <v>0.69314718055994529</v>
-      </c>
       <c r="G68" s="2">
         <v>2792.5279999999998</v>
       </c>
@@ -2515,10 +2357,6 @@
       <c r="D69" s="2">
         <v>3</v>
       </c>
-      <c r="E69" s="2">
-        <f t="shared" si="21"/>
-        <v>0.40546510810816438</v>
-      </c>
       <c r="G69" s="2">
         <v>2792.5279999999998</v>
       </c>
@@ -2543,8 +2381,8 @@
         <v>4</v>
       </c>
       <c r="E70" s="2">
-        <f>AVERAGE(E67:E69)</f>
-        <v>0.55274269220117744</v>
+        <f>LN(I70/G70)</f>
+        <v>0.55961578793542277</v>
       </c>
       <c r="G70" s="2">
         <f>AVERAGE(H67:H69)</f>
@@ -2594,10 +2432,6 @@
       <c r="D72" s="2">
         <v>1</v>
       </c>
-      <c r="E72" s="2">
-        <f>LN(I72/G72)</f>
-        <v>-0.79850769621777173</v>
-      </c>
       <c r="G72" s="2">
         <v>4654.2133333333331</v>
       </c>
@@ -2621,10 +2455,6 @@
       <c r="D73" s="2">
         <v>2</v>
       </c>
-      <c r="E73" s="2">
-        <f t="shared" ref="E73:E74" si="22">LN(I73/G73)</f>
-        <v>4.8790164169432049E-2</v>
-      </c>
       <c r="G73" s="2">
         <v>4654.2133333333331</v>
       </c>
@@ -2648,10 +2478,6 @@
       <c r="D74" s="2">
         <v>3</v>
       </c>
-      <c r="E74" s="2">
-        <f t="shared" si="22"/>
-        <v>-0.79850769621777173</v>
-      </c>
       <c r="G74" s="2">
         <v>4654.2133333333331</v>
       </c>
@@ -2676,8 +2502,8 @@
         <v>4</v>
       </c>
       <c r="E75" s="2">
-        <f>AVERAGE(E72:E74)</f>
-        <v>-0.51607507608870373</v>
+        <f>LN(I75/G75)</f>
+        <v>-0.43078291609245423</v>
       </c>
       <c r="G75" s="2">
         <f>AVERAGE(H72:H74)</f>
@@ -2727,10 +2553,6 @@
       <c r="D77" s="2">
         <v>1</v>
       </c>
-      <c r="E77" s="2">
-        <f>LN(I77/G77)</f>
-        <v>0.3541718137206139</v>
-      </c>
       <c r="G77" s="2">
         <v>9308.4266666666663</v>
       </c>
@@ -2754,10 +2576,6 @@
       <c r="D78" s="2">
         <v>2</v>
       </c>
-      <c r="E78" s="2">
-        <f>LN(I78/G78)</f>
-        <v>-0.2876820724517809</v>
-      </c>
       <c r="G78" s="2">
         <v>9308.4266666666663</v>
       </c>
@@ -2781,10 +2599,6 @@
       <c r="D79" s="2">
         <v>3</v>
       </c>
-      <c r="E79" s="2">
-        <f>LN(I79/G79)</f>
-        <v>0.24294617861038939</v>
-      </c>
       <c r="G79" s="2">
         <v>9308.4266666666663</v>
       </c>
@@ -2809,8 +2623,8 @@
         <v>4</v>
       </c>
       <c r="E80" s="2">
-        <f>AVERAGE(E77:E79)</f>
-        <v>0.10314530662640746</v>
+        <f>LN(I80/G80)</f>
+        <v>0.13976194237515882</v>
       </c>
       <c r="G80" s="2">
         <f>AVERAGE(H77:H79)</f>
@@ -2860,10 +2674,6 @@
       <c r="D82" s="2">
         <v>1</v>
       </c>
-      <c r="E82" s="2">
-        <f>LN(I82/G82)</f>
-        <v>-1.3862943611198906</v>
-      </c>
       <c r="G82" s="2">
         <v>2792.5279999999998</v>
       </c>
@@ -2887,10 +2697,6 @@
       <c r="D83" s="2">
         <v>2</v>
       </c>
-      <c r="E83" s="2">
-        <f>LN(I83/G83)</f>
-        <v>-0.2876820724517809</v>
-      </c>
       <c r="G83" s="2">
         <v>2792.5279999999998</v>
       </c>
@@ -2914,10 +2720,6 @@
       <c r="D84" s="2">
         <v>3</v>
       </c>
-      <c r="E84" s="2">
-        <f>LN(I84/G84)</f>
-        <v>0</v>
-      </c>
       <c r="G84" s="2">
         <v>2792.5279999999998</v>
       </c>
@@ -2942,8 +2744,8 @@
         <v>4</v>
       </c>
       <c r="E85" s="2">
-        <f>AVERAGE(E82:E84)</f>
-        <v>-0.55799214452389057</v>
+        <f>LN(I85/G85)</f>
+        <v>-0.40546510810816444</v>
       </c>
       <c r="G85" s="2">
         <f>AVERAGE(H82:H84)</f>
@@ -2993,10 +2795,6 @@
       <c r="D87" s="2">
         <v>1</v>
       </c>
-      <c r="E87" s="2">
-        <f>LN(I87/G87)</f>
-        <v>0.31015492830383945</v>
-      </c>
       <c r="G87" s="2">
         <v>2559.8173333333334</v>
       </c>
@@ -3020,10 +2818,6 @@
       <c r="D88" s="2">
         <v>2</v>
       </c>
-      <c r="E88" s="2">
-        <f>LN(I88/G88)</f>
-        <v>-1.2992829841302609</v>
-      </c>
       <c r="G88" s="2">
         <v>2559.8173333333334</v>
       </c>
@@ -3047,10 +2841,6 @@
       <c r="D89" s="2">
         <v>3</v>
       </c>
-      <c r="E89" s="2">
-        <f>LN(I89/G89)</f>
-        <v>-0.6061358035703156</v>
-      </c>
       <c r="G89" s="2">
         <v>2559.8173333333334</v>
       </c>
@@ -3075,8 +2865,8 @@
         <v>4</v>
       </c>
       <c r="E90" s="2">
-        <f>AVERAGE(E87:E89)</f>
-        <v>-0.53175461979891236</v>
+        <f>LN(I90/G90)</f>
+        <v>-0.31845373111853476</v>
       </c>
       <c r="G90" s="2">
         <f>AVERAGE(H87:H89)</f>
@@ -3126,9 +2916,7 @@
       <c r="D92" s="2">
         <v>1</v>
       </c>
-      <c r="E92" s="6">
-        <v>0</v>
-      </c>
+      <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6">
         <v>0</v>
@@ -3153,9 +2941,7 @@
       <c r="D93" s="2">
         <v>2</v>
       </c>
-      <c r="E93" s="6">
-        <v>0</v>
-      </c>
+      <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6">
         <v>0</v>
@@ -3180,9 +2966,7 @@
       <c r="D94" s="2">
         <v>3</v>
       </c>
-      <c r="E94" s="6">
-        <v>0</v>
-      </c>
+      <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6">
         <v>0</v>
@@ -3257,10 +3041,6 @@
       <c r="D97" s="2">
         <v>1</v>
       </c>
-      <c r="E97" s="2">
-        <f>LN(J97/G97)</f>
-        <v>-7.8476911807611121</v>
-      </c>
       <c r="G97" s="2">
         <v>2559.817333333333</v>
       </c>
@@ -3288,10 +3068,6 @@
       <c r="D98" s="2">
         <v>2</v>
       </c>
-      <c r="E98" s="2">
-        <f t="shared" ref="E98:E99" si="23">LN(J98/G98)</f>
-        <v>-1.2978516151538402</v>
-      </c>
       <c r="G98" s="2">
         <v>2559.817333333333</v>
       </c>
@@ -3302,7 +3078,7 @@
         <v>698.13199999999995</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" ref="J98:J99" si="24">I98+1</f>
+        <f t="shared" ref="J98:J99" si="10">I98+1</f>
         <v>699.13199999999995</v>
       </c>
     </row>
@@ -3319,10 +3095,6 @@
       <c r="D99" s="2">
         <v>3</v>
       </c>
-      <c r="E99" s="2">
-        <f t="shared" si="23"/>
-        <v>-0.60541986297998363</v>
-      </c>
       <c r="G99" s="2">
         <v>2559.817333333333</v>
       </c>
@@ -3333,7 +3105,7 @@
         <v>1396.2639999999999</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="10"/>
         <v>1397.2639999999999</v>
       </c>
     </row>
@@ -3351,8 +3123,8 @@
         <v>4</v>
       </c>
       <c r="E100" s="2">
-        <f>AVERAGE(E97:E99)</f>
-        <v>-3.250320886298312</v>
+        <f>LN(I100/G100)</f>
+        <v>-1.2992829841302607</v>
       </c>
       <c r="G100" s="2">
         <f>AVERAGE(H97:H99)</f>
@@ -3402,10 +3174,6 @@
       <c r="D102" s="2">
         <v>1</v>
       </c>
-      <c r="E102" s="2">
-        <f>LN(I102/G102)</f>
-        <v>-1.1700712526502548</v>
-      </c>
       <c r="G102" s="2">
         <v>6748.6093333333338</v>
       </c>
@@ -3429,10 +3197,6 @@
       <c r="D103" s="2">
         <v>2</v>
       </c>
-      <c r="E103" s="2">
-        <f t="shared" ref="E103:E104" si="25">LN(I103/G103)</f>
-        <v>-1.5755363607584192</v>
-      </c>
       <c r="G103" s="2">
         <v>6748.6093333333338</v>
       </c>
@@ -3456,10 +3220,6 @@
       <c r="D104" s="2">
         <v>3</v>
       </c>
-      <c r="E104" s="2">
-        <f t="shared" si="25"/>
-        <v>-0.32277339226305102</v>
-      </c>
       <c r="G104" s="2">
         <v>6748.6093333333338</v>
       </c>
@@ -3484,8 +3244,8 @@
         <v>4</v>
       </c>
       <c r="E105" s="2">
-        <f>AVERAGE(E102:E104)</f>
-        <v>-1.0227936685572416</v>
+        <f>LN(I105/G105)</f>
+        <v>-0.8823891801984739</v>
       </c>
       <c r="G105" s="2">
         <f>AVERAGE(H102:H104)</f>
@@ -3535,10 +3295,6 @@
       <c r="D107" s="2">
         <v>1</v>
       </c>
-      <c r="E107" s="2">
-        <f>LN(I107/G107)</f>
-        <v>-0.77318988823348178</v>
-      </c>
       <c r="G107" s="2">
         <v>6050.4773333333333</v>
       </c>
@@ -3562,10 +3318,6 @@
       <c r="D108" s="2">
         <v>2</v>
       </c>
-      <c r="E108" s="2">
-        <f t="shared" ref="E108:E109" si="26">LN(I108/G108)</f>
-        <v>-0.77318988823348178</v>
-      </c>
       <c r="G108" s="2">
         <v>6050.4773333333333</v>
       </c>
@@ -3589,10 +3341,6 @@
       <c r="D109" s="2">
         <v>3</v>
       </c>
-      <c r="E109" s="2">
-        <f t="shared" si="26"/>
-        <v>-0.21357410029805904</v>
-      </c>
       <c r="G109" s="2">
         <v>6050.4773333333333</v>
       </c>
@@ -3617,8 +3365,8 @@
         <v>4</v>
       </c>
       <c r="E110" s="2">
-        <f>AVERAGE(E107:E109)</f>
-        <v>-0.58665129225500756</v>
+        <f>LN(I110/G110)</f>
+        <v>-0.55004633691927207</v>
       </c>
       <c r="G110" s="2">
         <f>AVERAGE(H107:H109)</f>
@@ -3668,10 +3416,6 @@
       <c r="D112" s="2">
         <v>1</v>
       </c>
-      <c r="E112" s="2">
-        <f>LN(I112/G112)</f>
-        <v>-0.48183808689273833</v>
-      </c>
       <c r="G112" s="2">
         <v>23736.487999999998</v>
       </c>
@@ -3695,10 +3439,6 @@
       <c r="D113" s="2">
         <v>2</v>
       </c>
-      <c r="E113" s="2">
-        <f t="shared" ref="E113:E114" si="27">LN(I113/G113)</f>
-        <v>-0.4353180712578455</v>
-      </c>
       <c r="G113" s="2">
         <v>23736.487999999998</v>
       </c>
@@ -3722,10 +3462,6 @@
       <c r="D114" s="2">
         <v>3</v>
       </c>
-      <c r="E114" s="2">
-        <f t="shared" si="27"/>
-        <v>-9.2373320131015166E-2</v>
-      </c>
       <c r="G114" s="2">
         <v>23736.487999999998</v>
       </c>
@@ -3750,8 +3486,8 @@
         <v>4</v>
       </c>
       <c r="E115" s="2">
-        <f>AVERAGE(E112:E114)</f>
-        <v>-0.33650982609386632</v>
+        <f>LN(I115/G115)</f>
+        <v>-0.32090772008010121</v>
       </c>
       <c r="G115" s="2">
         <f>AVERAGE(H112:H114)</f>
@@ -3801,9 +3537,7 @@
       <c r="D117" s="2">
         <v>1</v>
       </c>
-      <c r="E117" s="6">
-        <v>0</v>
-      </c>
+      <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6">
         <v>0</v>
@@ -3828,9 +3562,7 @@
       <c r="D118" s="2">
         <v>2</v>
       </c>
-      <c r="E118" s="6">
-        <v>0</v>
-      </c>
+      <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6">
         <v>0</v>
@@ -3855,9 +3587,7 @@
       <c r="D119" s="2">
         <v>3</v>
       </c>
-      <c r="E119" s="6">
-        <v>0</v>
-      </c>
+      <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6">
         <v>0</v>
@@ -3932,10 +3662,6 @@
       <c r="D122" s="2">
         <v>1</v>
       </c>
-      <c r="E122" s="2">
-        <f>LN(I122/G122)</f>
-        <v>0.14310084364067344</v>
-      </c>
       <c r="F122" s="8"/>
       <c r="G122" s="8">
         <v>6050.4773333333324</v>
@@ -3961,10 +3687,6 @@
       <c r="D123" s="2">
         <v>2</v>
       </c>
-      <c r="E123" s="2">
-        <f t="shared" ref="E123:E124" si="28">LN(I123/G123)</f>
-        <v>-8.004270767353637E-2</v>
-      </c>
       <c r="F123" s="8"/>
       <c r="G123" s="8">
         <v>6050.4773333333324</v>
@@ -3990,10 +3712,6 @@
       <c r="D124" s="2">
         <v>3</v>
       </c>
-      <c r="E124" s="2">
-        <f t="shared" si="28"/>
-        <v>-0.55004633691927185</v>
-      </c>
       <c r="F124" s="8"/>
       <c r="G124" s="8">
         <v>6050.4773333333324</v>
@@ -4020,8 +3738,8 @@
         <v>4</v>
       </c>
       <c r="E125" s="2">
-        <f>AVERAGE(E122:E124)</f>
-        <v>-0.16232940031737828</v>
+        <f>LN(I125/G125)</f>
+        <v>-0.12260232209233214</v>
       </c>
       <c r="F125" s="8"/>
       <c r="G125" s="2">
@@ -4075,9 +3793,7 @@
       <c r="D127" s="2">
         <v>1</v>
       </c>
-      <c r="E127" s="6">
-        <v>0</v>
-      </c>
+      <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="6">
         <v>0</v>
@@ -4102,9 +3818,7 @@
       <c r="D128" s="2">
         <v>2</v>
       </c>
-      <c r="E128" s="6">
-        <v>0</v>
-      </c>
+      <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="6">
         <v>0</v>
@@ -4129,9 +3843,7 @@
       <c r="D129" s="2">
         <v>3</v>
       </c>
-      <c r="E129" s="6">
-        <v>0</v>
-      </c>
+      <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="6">
         <v>0</v>
@@ -4206,10 +3918,6 @@
       <c r="D132" s="2">
         <v>1</v>
       </c>
-      <c r="E132" s="2">
-        <f>LN(I132/G132)</f>
-        <v>-0.25593337413720052</v>
-      </c>
       <c r="G132" s="2">
         <v>7214.0306666666656</v>
       </c>
@@ -4233,10 +3941,6 @@
       <c r="D133" s="2">
         <v>2</v>
       </c>
-      <c r="E133" s="2">
-        <f t="shared" ref="E133:E134" si="29">LN(I133/G133)</f>
-        <v>6.2520356981334138E-2</v>
-      </c>
       <c r="G133" s="2">
         <v>7214.0306666666656</v>
       </c>
@@ -4260,10 +3964,6 @@
       <c r="D134" s="2">
         <v>3</v>
       </c>
-      <c r="E134" s="2">
-        <f t="shared" si="29"/>
-        <v>-0.25593337413720052</v>
-      </c>
       <c r="G134" s="2">
         <v>7214.0306666666656</v>
       </c>
@@ -4288,8 +3988,8 @@
         <v>4</v>
       </c>
       <c r="E135" s="2">
-        <f>AVERAGE(E132:E134)</f>
-        <v>-0.14978213043102231</v>
+        <f>LN(I135/G135)</f>
+        <v>-0.13815033848081718</v>
       </c>
       <c r="G135" s="2">
         <f>AVERAGE(H132:H134)</f>
@@ -4339,10 +4039,6 @@
       <c r="D137" s="2">
         <v>1</v>
       </c>
-      <c r="E137" s="2">
-        <f>LN(I137/G137)</f>
-        <v>-0.81093021621632866</v>
-      </c>
       <c r="G137" s="2">
         <v>6283.1879999999992</v>
       </c>
@@ -4366,10 +4062,6 @@
       <c r="D138" s="2">
         <v>2</v>
       </c>
-      <c r="E138" s="2">
-        <f t="shared" ref="E138:E139" si="30">LN(I138/G138)</f>
-        <v>-1.0986122886681098</v>
-      </c>
       <c r="G138" s="2">
         <v>6283.1879999999992</v>
       </c>
@@ -4393,10 +4085,6 @@
       <c r="D139" s="2">
         <v>3</v>
       </c>
-      <c r="E139" s="2">
-        <f t="shared" si="30"/>
-        <v>-0.40546510810816444</v>
-      </c>
       <c r="G139" s="2">
         <v>6283.1879999999992</v>
       </c>
@@ -4421,8 +4109,8 @@
         <v>4</v>
       </c>
       <c r="E140" s="2">
-        <f>AVERAGE(E137:E139)</f>
-        <v>-0.77166920433086761</v>
+        <f>LN(I140/G140)</f>
+        <v>-0.73088750854279239</v>
       </c>
       <c r="G140" s="2">
         <f>AVERAGE(H137:H139)</f>
@@ -4472,10 +4160,6 @@
       <c r="D142" s="2">
         <v>1</v>
       </c>
-      <c r="E142" s="2">
-        <f>LN(I142/G142)</f>
-        <v>2.1972245773362196</v>
-      </c>
       <c r="G142" s="2">
         <v>232.71066666666664</v>
       </c>
@@ -4499,10 +4183,6 @@
       <c r="D143" s="2">
         <v>2</v>
       </c>
-      <c r="E143" s="2">
-        <f t="shared" ref="E143:E144" si="31">LN(I143/G143)</f>
-        <v>3.044522437723423</v>
-      </c>
       <c r="G143" s="2">
         <v>232.71066666666664</v>
       </c>
@@ -4526,10 +4206,6 @@
       <c r="D144" s="2">
         <v>3</v>
       </c>
-      <c r="E144" s="2">
-        <f t="shared" si="31"/>
-        <v>1.0986122886681098</v>
-      </c>
       <c r="G144" s="2">
         <v>232.71066666666664</v>
       </c>
@@ -4554,8 +4230,8 @@
         <v>4</v>
       </c>
       <c r="E145" s="2">
-        <f>AVERAGE(E142:E144)</f>
-        <v>2.1134531012425843</v>
+        <f>LN(I145/G145)</f>
+        <v>2.3978952727983707</v>
       </c>
       <c r="G145" s="2">
         <f>AVERAGE(H142:H144)</f>
@@ -4605,10 +4281,6 @@
       <c r="D147" s="2">
         <v>1</v>
       </c>
-      <c r="E147" s="2">
-        <f>LN(I147/G147)</f>
-        <v>1.09861228866811</v>
-      </c>
       <c r="G147" s="2">
         <v>1628.9746666666663</v>
       </c>
@@ -4632,10 +4304,6 @@
       <c r="D148" s="2">
         <v>2</v>
       </c>
-      <c r="E148" s="2">
-        <f t="shared" ref="E148:E149" si="32">LN(I148/G148)</f>
-        <v>0.53899650073268723</v>
-      </c>
       <c r="G148" s="2">
         <v>1628.9746666666663</v>
       </c>
@@ -4659,10 +4327,6 @@
       <c r="D149" s="2">
         <v>3</v>
       </c>
-      <c r="E149" s="2">
-        <f t="shared" si="32"/>
-        <v>0.76214005204689694</v>
-      </c>
       <c r="G149" s="2">
         <v>1628.9746666666663</v>
       </c>
@@ -4687,8 +4351,8 @@
         <v>4</v>
       </c>
       <c r="E150" s="2">
-        <f>AVERAGE(E147:E149)</f>
-        <v>0.7999162804825648</v>
+        <f>LN(I150/G150)</f>
+        <v>0.82667857318446802</v>
       </c>
       <c r="G150" s="2">
         <f>AVERAGE(H147:H149)</f>
@@ -4738,10 +4402,6 @@
       <c r="D152" s="2">
         <v>1</v>
       </c>
-      <c r="E152" s="2">
-        <f>LN(I152/G152)</f>
-        <v>-0.12516314295400605</v>
-      </c>
       <c r="G152" s="2">
         <v>3956.0813333333331</v>
       </c>
@@ -4765,10 +4425,6 @@
       <c r="D153" s="2">
         <v>2</v>
       </c>
-      <c r="E153" s="2">
-        <f t="shared" ref="E153:E154" si="33">LN(I153/G153)</f>
-        <v>-0.3483066942682157</v>
-      </c>
       <c r="G153" s="2">
         <v>3956.0813333333331</v>
       </c>
@@ -4792,10 +4448,6 @@
       <c r="D154" s="2">
         <v>3</v>
       </c>
-      <c r="E154" s="2">
-        <f t="shared" si="33"/>
-        <v>5.7158413839948623E-2</v>
-      </c>
       <c r="G154" s="2">
         <v>3956.0813333333331</v>
       </c>
@@ -4820,8 +4472,8 @@
         <v>4</v>
       </c>
       <c r="E155" s="2">
-        <f>AVERAGE(E152:E154)</f>
-        <v>-0.13877047446075771</v>
+        <f>LN(I155/G155)</f>
+        <v>-0.12516314295400605</v>
       </c>
       <c r="G155" s="2">
         <f>AVERAGE(H152:H154)</f>
@@ -4871,10 +4523,6 @@
       <c r="D157" s="2">
         <v>1</v>
       </c>
-      <c r="E157" s="2">
-        <f>LN(J157/G157)</f>
-        <v>-1.2025414353495154</v>
-      </c>
       <c r="G157" s="2">
         <v>2327.1066666666666</v>
       </c>
@@ -4902,10 +4550,6 @@
       <c r="D158" s="2">
         <v>2</v>
       </c>
-      <c r="E158" s="2">
-        <f t="shared" ref="E158:E159" si="34">LN(J158/G158)</f>
-        <v>-0.10488316498314434</v>
-      </c>
       <c r="G158" s="2">
         <v>2327.1066666666666</v>
       </c>
@@ -4916,7 +4560,7 @@
         <v>2094.3959999999997</v>
       </c>
       <c r="J158" s="2">
-        <f t="shared" ref="J158:J159" si="35">I158+1</f>
+        <f t="shared" ref="J158:J159" si="11">I158+1</f>
         <v>2095.3959999999997</v>
       </c>
     </row>
@@ -4933,10 +4577,6 @@
       <c r="D159" s="2">
         <v>3</v>
       </c>
-      <c r="E159" s="2">
-        <f t="shared" si="34"/>
-        <v>-7.7523810009567873</v>
-      </c>
       <c r="G159" s="2">
         <v>2327.1066666666666</v>
       </c>
@@ -4947,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -4965,8 +4605,8 @@
         <v>4</v>
       </c>
       <c r="E160" s="2">
-        <f>AVERAGE(E157:E159)</f>
-        <v>-3.0199352004298157</v>
+        <f>LN(I160/G160)</f>
+        <v>-0.91629073187415511</v>
       </c>
       <c r="G160" s="2">
         <f>AVERAGE(H157:H159)</f>
@@ -5016,10 +4656,6 @@
       <c r="D162" s="2">
         <v>1</v>
       </c>
-      <c r="E162" s="2">
-        <f>LN(J162/G162)</f>
-        <v>-1.6415117946667594</v>
-      </c>
       <c r="G162" s="2">
         <v>7214.0306666666656</v>
       </c>
@@ -5047,10 +4683,6 @@
       <c r="D163" s="2">
         <v>2</v>
       </c>
-      <c r="E163" s="2">
-        <f t="shared" ref="E163:E164" si="36">LN(J163/G163)</f>
-        <v>-8.8837831124478868</v>
-      </c>
       <c r="G163" s="2">
         <v>7214.0306666666656</v>
       </c>
@@ -5061,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="2">
-        <f t="shared" ref="J163:J164" si="37">I163+1</f>
+        <f t="shared" ref="J163:J164" si="12">I163+1</f>
         <v>1</v>
       </c>
     </row>
@@ -5078,10 +4710,6 @@
       <c r="D164" s="2">
         <v>3</v>
       </c>
-      <c r="E164" s="2">
-        <f t="shared" si="36"/>
-        <v>-0.54337674276868253</v>
-      </c>
       <c r="G164" s="2">
         <v>7214.0306666666656</v>
       </c>
@@ -5092,7 +4720,7 @@
         <v>4188.7919999999995</v>
       </c>
       <c r="J164" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="12"/>
         <v>4189.7919999999995</v>
       </c>
     </row>
@@ -5110,8 +4738,8 @@
         <v>4</v>
       </c>
       <c r="E165" s="2">
-        <f>AVERAGE(E162:E164)</f>
-        <v>-3.6895572166277759</v>
+        <f>LN(I165/G165)</f>
+        <v>-1.3540086593147711</v>
       </c>
       <c r="G165" s="2">
         <f>AVERAGE(H162:H164)</f>
@@ -5161,10 +4789,6 @@
       <c r="D167" s="2">
         <v>1</v>
       </c>
-      <c r="E167" s="2">
-        <f>LN(J167/G167)</f>
-        <v>-9.0333148464188522</v>
-      </c>
       <c r="G167" s="2">
         <v>8377.5840000000007</v>
       </c>
@@ -5192,10 +4816,6 @@
       <c r="D168" s="2">
         <v>2</v>
       </c>
-      <c r="E168" s="2">
-        <f t="shared" ref="E168:E169" si="38">LN(J168/G168)</f>
-        <v>-1.3858170104452088</v>
-      </c>
       <c r="G168" s="2">
         <v>8377.5840000000007</v>
       </c>
@@ -5206,7 +4826,7 @@
         <v>2094.3959999999997</v>
       </c>
       <c r="J168" s="2">
-        <f t="shared" ref="J168:J169" si="39">I168+1</f>
+        <f t="shared" ref="J168:J169" si="13">I168+1</f>
         <v>2095.3959999999997</v>
       </c>
     </row>
@@ -5223,10 +4843,6 @@
       <c r="D169" s="2">
         <v>3</v>
       </c>
-      <c r="E169" s="2">
-        <f t="shared" si="38"/>
-        <v>-2.4834752808115796</v>
-      </c>
       <c r="G169" s="2">
         <v>8377.5840000000007</v>
       </c>
@@ -5237,7 +4853,7 @@
         <v>698.13199999999995</v>
       </c>
       <c r="J169" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="13"/>
         <v>699.13199999999995</v>
       </c>
     </row>
@@ -5255,8 +4871,8 @@
         <v>4</v>
       </c>
       <c r="E170" s="2">
-        <f>AVERAGE(E167:E169)</f>
-        <v>-4.3008690458918801</v>
+        <f>LN(I170/G170)</f>
+        <v>-2.1961508585731226</v>
       </c>
       <c r="G170" s="2">
         <f>AVERAGE(H167:H169)</f>
@@ -5306,10 +4922,6 @@
       <c r="D172" s="2">
         <v>1</v>
       </c>
-      <c r="E172" s="2">
-        <f>LN(I172/G172)</f>
-        <v>-0.40546510810816427</v>
-      </c>
       <c r="G172" s="2">
         <v>2094.3959999999997</v>
       </c>
@@ -5333,10 +4945,6 @@
       <c r="D173" s="2">
         <v>2</v>
       </c>
-      <c r="E173" s="2">
-        <f t="shared" ref="E173:E174" si="40">LN(I173/G173)</f>
-        <v>0.51082562376599072</v>
-      </c>
       <c r="G173" s="2">
         <v>2094.3959999999997</v>
       </c>
@@ -5360,10 +4968,6 @@
       <c r="D174" s="2">
         <v>3</v>
       </c>
-      <c r="E174" s="2">
-        <f t="shared" si="40"/>
-        <v>-1.0986122886681096</v>
-      </c>
       <c r="G174" s="2">
         <v>2094.3959999999997</v>
       </c>
@@ -5388,8 +4992,8 @@
         <v>4</v>
       </c>
       <c r="E175" s="2">
-        <f>AVERAGE(E172:E174)</f>
-        <v>-0.33108392433676104</v>
+        <f>LN(I175/G175)</f>
+        <v>-0.11778303565638339</v>
       </c>
       <c r="G175" s="2">
         <f>AVERAGE(H172:H174)</f>
@@ -5439,9 +5043,7 @@
       <c r="D177" s="2">
         <v>1</v>
       </c>
-      <c r="E177" s="6">
-        <v>0</v>
-      </c>
+      <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6">
         <v>0</v>
@@ -5470,9 +5072,7 @@
       <c r="D178" s="2">
         <v>2</v>
       </c>
-      <c r="E178" s="6">
-        <v>0</v>
-      </c>
+      <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6">
         <v>0</v>
@@ -5501,9 +5101,7 @@
       <c r="D179" s="2">
         <v>3</v>
       </c>
-      <c r="E179" s="6">
-        <v>0</v>
-      </c>
+      <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6">
         <v>0</v>
@@ -5588,9 +5186,7 @@
       <c r="D182" s="2">
         <v>1</v>
       </c>
-      <c r="E182" s="6">
-        <v>0</v>
-      </c>
+      <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="6">
         <v>0</v>
@@ -5616,9 +5212,7 @@
       <c r="D183" s="2">
         <v>2</v>
       </c>
-      <c r="E183" s="6">
-        <v>0</v>
-      </c>
+      <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6">
         <v>0</v>
@@ -5644,9 +5238,7 @@
       <c r="D184" s="2">
         <v>3</v>
       </c>
-      <c r="E184" s="6">
-        <v>0</v>
-      </c>
+      <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="6">
         <v>0</v>
@@ -5726,10 +5318,6 @@
       <c r="D187" s="2">
         <v>1</v>
       </c>
-      <c r="E187" s="2">
-        <f>LN(I187/G187)</f>
-        <v>-0.78845736036427017</v>
-      </c>
       <c r="G187" s="2">
         <v>15358.904</v>
       </c>
@@ -5753,10 +5341,6 @@
       <c r="D188" s="2">
         <v>2</v>
       </c>
-      <c r="E188" s="2">
-        <f t="shared" ref="E188:E189" si="41">LN(I188/G188)</f>
-        <v>-0.14660347419187539</v>
-      </c>
       <c r="G188" s="2">
         <v>15358.904</v>
       </c>
@@ -5780,10 +5364,6 @@
       <c r="D189" s="2">
         <v>3</v>
       </c>
-      <c r="E189" s="2">
-        <f t="shared" si="41"/>
-        <v>-0.31845373111853476</v>
-      </c>
       <c r="G189" s="2">
         <v>15358.904</v>
       </c>
@@ -5808,8 +5388,8 @@
         <v>4</v>
       </c>
       <c r="E190" s="2">
-        <f>AVERAGE(E187:E189)</f>
-        <v>-0.41783818855822674</v>
+        <f>LN(I190/G190)</f>
+        <v>-0.38299225225610573</v>
       </c>
       <c r="G190" s="2">
         <f>AVERAGE(H187:H189)</f>
@@ -5859,10 +5439,6 @@
       <c r="D192" s="2">
         <v>1</v>
       </c>
-      <c r="E192" s="2">
-        <f>LN(J192/G192)</f>
-        <v>-8.9761564325789021</v>
-      </c>
       <c r="G192" s="2">
         <v>7912.1626666666662</v>
       </c>
@@ -5890,10 +5466,6 @@
       <c r="D193" s="2">
         <v>2</v>
       </c>
-      <c r="E193" s="2">
-        <f t="shared" ref="E193:E194" si="42">LN(J193/G193)</f>
-        <v>0.90450742984275068</v>
-      </c>
       <c r="G193" s="2">
         <v>7912.1626666666662</v>
       </c>
@@ -5904,7 +5476,7 @@
         <v>19547.696</v>
       </c>
       <c r="J193" s="2">
-        <f t="shared" ref="J193:J194" si="43">I193+1</f>
+        <f t="shared" ref="J193:J194" si="14">I193+1</f>
         <v>19548.696</v>
       </c>
     </row>
@@ -5921,10 +5493,6 @@
       <c r="D194" s="2">
         <v>3</v>
       </c>
-      <c r="E194" s="2">
-        <f>LN(J194/G194)</f>
-        <v>-0.12501991382439373</v>
-      </c>
       <c r="G194" s="2">
         <v>7912.1626666666662</v>
       </c>
@@ -5935,7 +5503,7 @@
         <v>6981.32</v>
       </c>
       <c r="J194" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="14"/>
         <v>6982.32</v>
       </c>
     </row>
@@ -5953,8 +5521,8 @@
         <v>4</v>
       </c>
       <c r="E195" s="2">
-        <f>AVERAGE(E192:E194)</f>
-        <v>-2.7322229721868485</v>
+        <f>LN(I195/G195)</f>
+        <v>0.1112256351102244</v>
       </c>
       <c r="G195" s="2">
         <f>AVERAGE(H192:H194)</f>
@@ -6004,10 +5572,6 @@
       <c r="D197" s="2">
         <v>1</v>
       </c>
-      <c r="E197" s="2">
-        <f>LN(J197/G197)</f>
-        <v>1.2165544665355816</v>
-      </c>
       <c r="G197" s="2">
         <v>1861.6853333333331</v>
       </c>
@@ -6035,10 +5599,6 @@
       <c r="D198" s="2">
         <v>2</v>
       </c>
-      <c r="E198" s="2">
-        <f t="shared" ref="E198:E199" si="44">LN(J198/G198)</f>
-        <v>2.1972842586333359</v>
-      </c>
       <c r="G198" s="2">
         <v>1861.6853333333331</v>
       </c>
@@ -6049,7 +5609,7 @@
         <v>16755.167999999998</v>
       </c>
       <c r="J198" s="2">
-        <f t="shared" ref="J198:J199" si="45">I198+1</f>
+        <f t="shared" ref="J198:J199" si="15">I198+1</f>
         <v>16756.167999999998</v>
       </c>
     </row>
@@ -6066,10 +5626,6 @@
       <c r="D199" s="2">
         <v>3</v>
       </c>
-      <c r="E199" s="2">
-        <f>LN(J199/G199)</f>
-        <v>-7.5292374496425767</v>
-      </c>
       <c r="G199" s="2">
         <v>1861.6853333333331</v>
       </c>
@@ -6080,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="J199" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -6098,8 +5654,8 @@
         <v>4</v>
       </c>
       <c r="E200" s="2">
-        <f>AVERAGE(E197:E199)</f>
-        <v>-1.3717995748245528</v>
+        <f>LN(I200/G200)</f>
+        <v>1.4170660197866443</v>
       </c>
       <c r="G200" s="2">
         <f>AVERAGE(H197:H199)</f>
@@ -6149,10 +5705,6 @@
       <c r="D202" s="2">
         <v>1</v>
       </c>
-      <c r="E202" s="2">
-        <f>LN(I202/G202)</f>
-        <v>-0.3548213752894096</v>
-      </c>
       <c r="G202" s="2">
         <v>35837.44266666667</v>
       </c>
@@ -6176,10 +5728,6 @@
       <c r="D203" s="2">
         <v>2</v>
       </c>
-      <c r="E203" s="2">
-        <f t="shared" ref="E203:E204" si="46">LN(I203/G203)</f>
-        <v>-2.6317308317373531E-2</v>
-      </c>
       <c r="G203" s="2">
         <v>35837.44266666667</v>
       </c>
@@ -6203,10 +5751,6 @@
       <c r="D204" s="2">
         <v>3</v>
       </c>
-      <c r="E204" s="2">
-        <f t="shared" si="46"/>
-        <v>-0.13167782397519981</v>
-      </c>
       <c r="G204" s="2">
         <v>35837.44266666667</v>
       </c>
@@ -6231,8 +5775,8 @@
         <v>4</v>
       </c>
       <c r="E205" s="2">
-        <f>AVERAGE(E202:E204)</f>
-        <v>-0.17093883586066097</v>
+        <f>LN(I205/G205)</f>
+        <v>-0.16175527921247762</v>
       </c>
       <c r="G205" s="2">
         <f>AVERAGE(H202:H204)</f>
@@ -6282,10 +5826,6 @@
       <c r="D207" s="2">
         <v>1</v>
       </c>
-      <c r="E207" s="2">
-        <f>LN(J207/G207)</f>
-        <v>-9.654488527353708</v>
-      </c>
       <c r="G207" s="2">
         <v>15591.614666666666</v>
       </c>
@@ -6313,10 +5853,6 @@
       <c r="D208" s="2">
         <v>2</v>
       </c>
-      <c r="E208" s="2">
-        <f t="shared" ref="E208:E209" si="47">LN(J208/G208)</f>
-        <v>-0.46692069249316404</v>
-      </c>
       <c r="G208" s="2">
         <v>15591.614666666666</v>
       </c>
@@ -6327,7 +5863,7 @@
         <v>9773.848</v>
       </c>
       <c r="J208" s="2">
-        <f t="shared" ref="J208:J209" si="48">I208+1</f>
+        <f t="shared" ref="J208:J209" si="16">I208+1</f>
         <v>9774.848</v>
       </c>
     </row>
@@ -6344,10 +5880,6 @@
       <c r="D209" s="2">
         <v>3</v>
       </c>
-      <c r="E209" s="2">
-        <f t="shared" si="47"/>
-        <v>-1.7194279352364352</v>
-      </c>
       <c r="G209" s="2">
         <v>15591.614666666666</v>
       </c>
@@ -6358,7 +5890,7 @@
         <v>2792.5279999999998</v>
       </c>
       <c r="J209" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="16"/>
         <v>2793.5279999999998</v>
       </c>
     </row>
@@ -6376,8 +5908,8 @@
         <v>4</v>
       </c>
       <c r="E210" s="2">
-        <f>AVERAGE(E207:E209)</f>
-        <v>-3.9469457183611021</v>
+        <f>LN(I210/G210)</f>
+        <v>-1.3143208614948012</v>
       </c>
       <c r="G210" s="2">
         <f>AVERAGE(H207:H209)</f>
@@ -6427,10 +5959,6 @@
       <c r="D212" s="2">
         <v>1</v>
       </c>
-      <c r="E212" s="2">
-        <f>LN(J212/G212)</f>
-        <v>-8.5852901238918911</v>
-      </c>
       <c r="G212" s="2">
         <v>5352.3453333333327</v>
       </c>
@@ -6458,10 +5986,6 @@
       <c r="D213" s="2">
         <v>2</v>
       </c>
-      <c r="E213" s="2">
-        <f t="shared" ref="E213:E214" si="49">LN(J213/G213)</f>
-        <v>-9.0767171442841174E-2</v>
-      </c>
       <c r="G213" s="2">
         <v>5352.3453333333327</v>
       </c>
@@ -6472,7 +5996,7 @@
         <v>4886.924</v>
       </c>
       <c r="J213" s="2">
-        <f t="shared" ref="J213:J214" si="50">I213+1</f>
+        <f t="shared" ref="J213:J214" si="17">I213+1</f>
         <v>4887.924</v>
       </c>
     </row>
@@ -6489,10 +6013,6 @@
       <c r="D214" s="2">
         <v>3</v>
       </c>
-      <c r="E214" s="2">
-        <f>LN(J214/G214)</f>
-        <v>-2.0354505582846194</v>
-      </c>
       <c r="G214" s="2">
         <v>5352.3453333333327</v>
       </c>
@@ -6503,7 +6023,7 @@
         <v>698.13199999999995</v>
       </c>
       <c r="J214" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>699.13199999999995</v>
       </c>
     </row>
@@ -6521,8 +6041,8 @@
         <v>4</v>
       </c>
       <c r="E215" s="2">
-        <f>AVERAGE(E212:E214)</f>
-        <v>-3.5705026178731174</v>
+        <f>LN(I215/G215)</f>
+        <v>-1.0560526742493137</v>
       </c>
       <c r="G215" s="2">
         <f>AVERAGE(H212:H214)</f>
@@ -6572,10 +6092,6 @@
       <c r="D217" s="2">
         <v>1</v>
       </c>
-      <c r="E217" s="2">
-        <f>LN(I217/G217)</f>
-        <v>-1.2039728043259361</v>
-      </c>
       <c r="G217" s="2">
         <v>2327.1066666666666</v>
       </c>
@@ -6599,10 +6115,6 @@
       <c r="D218" s="2">
         <v>2</v>
       </c>
-      <c r="E218" s="2">
-        <f t="shared" ref="E218:E219" si="51">LN(I218/G218)</f>
-        <v>0.40546510810816438</v>
-      </c>
       <c r="G218" s="2">
         <v>2327.1066666666666</v>
       </c>
@@ -6626,10 +6138,6 @@
       <c r="D219" s="2">
         <v>3</v>
       </c>
-      <c r="E219" s="2">
-        <f t="shared" si="51"/>
-        <v>0.18232155679395459</v>
-      </c>
       <c r="G219" s="2">
         <v>2327.1066666666666</v>
       </c>
@@ -6654,8 +6162,8 @@
         <v>4</v>
       </c>
       <c r="E220" s="2">
-        <f>AVERAGE(E217:E219)</f>
-        <v>-0.20539537980793907</v>
+        <f>LN(I220/G220)</f>
+        <v>0</v>
       </c>
       <c r="G220" s="2">
         <f>AVERAGE(H217:H219)</f>
@@ -6705,10 +6213,6 @@
       <c r="D222" s="2">
         <v>1</v>
       </c>
-      <c r="E222" s="2">
-        <f>LN(J222/G222)</f>
-        <v>-8.222384630202523</v>
-      </c>
       <c r="G222" s="2">
         <v>3723.3706666666662</v>
       </c>
@@ -6736,10 +6240,6 @@
       <c r="D223" s="2">
         <v>2</v>
       </c>
-      <c r="E223" s="2">
-        <f t="shared" ref="E223:E224" si="52">LN(J223/G223)</f>
-        <v>-0.98011331242139443</v>
-      </c>
       <c r="G223" s="2">
         <v>3723.3706666666662</v>
       </c>
@@ -6750,7 +6250,7 @@
         <v>1396.2639999999999</v>
       </c>
       <c r="J223" s="2">
-        <f t="shared" ref="J223:J224" si="53">I223+1</f>
+        <f t="shared" ref="J223:J224" si="18">I223+1</f>
         <v>1397.2639999999999</v>
       </c>
     </row>
@@ -6767,10 +6267,6 @@
       <c r="D224" s="2">
         <v>3</v>
       </c>
-      <c r="E224" s="2">
-        <f t="shared" si="52"/>
-        <v>0.11802173947668243</v>
-      </c>
       <c r="G224" s="2">
         <v>3723.3706666666662</v>
       </c>
@@ -6781,7 +6277,7 @@
         <v>4188.7919999999995</v>
       </c>
       <c r="J224" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="18"/>
         <v>4189.7919999999995</v>
       </c>
     </row>
@@ -6799,8 +6295,8 @@
         <v>4</v>
       </c>
       <c r="E225" s="2">
-        <f>AVERAGE(E222:E224)</f>
-        <v>-3.0281587343824117</v>
+        <f>LN(I225/G225)</f>
+        <v>-0.69314718055994529</v>
       </c>
       <c r="G225" s="2">
         <f>AVERAGE(H222:H224)</f>
@@ -6850,10 +6346,6 @@
       <c r="D227" s="2">
         <v>1</v>
       </c>
-      <c r="E227" s="2">
-        <f>LN(I227/G227)</f>
-        <v>0.22314355131420976</v>
-      </c>
       <c r="G227" s="2">
         <v>2792.5279999999998</v>
       </c>
@@ -6877,10 +6369,6 @@
       <c r="D228" s="2">
         <v>2</v>
       </c>
-      <c r="E228" s="2">
-        <f t="shared" ref="E228:E229" si="54">LN(I228/G228)</f>
-        <v>0.22314355131420976</v>
-      </c>
       <c r="G228" s="2">
         <v>2792.5279999999998</v>
       </c>
@@ -6904,10 +6392,6 @@
       <c r="D229" s="2">
         <v>3</v>
       </c>
-      <c r="E229" s="2">
-        <f t="shared" si="54"/>
-        <v>0.81093021621632877</v>
-      </c>
       <c r="G229" s="2">
         <v>2792.5279999999998</v>
       </c>
@@ -6932,8 +6416,8 @@
         <v>4</v>
       </c>
       <c r="E230" s="2">
-        <f>AVERAGE(E227:E229)</f>
-        <v>0.41907243961491608</v>
+        <f>LN(I230/G230)</f>
+        <v>0.45953232937844013</v>
       </c>
       <c r="G230" s="2">
         <f>AVERAGE(H227:H229)</f>
@@ -6983,10 +6467,6 @@
       <c r="D232" s="2">
         <v>1</v>
       </c>
-      <c r="E232" s="2">
-        <f>LN(I232/G232)</f>
-        <v>-0.79850769621777173</v>
-      </c>
       <c r="G232" s="2">
         <v>4654.2133333333331</v>
       </c>
@@ -7010,10 +6490,6 @@
       <c r="D233" s="2">
         <v>2</v>
       </c>
-      <c r="E233" s="2">
-        <f t="shared" ref="E233:E234" si="55">LN(I233/G233)</f>
-        <v>-0.2876820724517809</v>
-      </c>
       <c r="G233" s="2">
         <v>4654.2133333333331</v>
       </c>
@@ -7037,10 +6513,6 @@
       <c r="D234" s="2">
         <v>3</v>
       </c>
-      <c r="E234" s="2">
-        <f t="shared" si="55"/>
-        <v>-1.8971199848858813</v>
-      </c>
       <c r="G234" s="2">
         <v>4654.2133333333331</v>
       </c>
@@ -7065,8 +6537,8 @@
         <v>4</v>
       </c>
       <c r="E235" s="2">
-        <f>AVERAGE(E232:E234)</f>
-        <v>-0.99443658451847794</v>
+        <f>LN(I235/G235)</f>
+        <v>-0.79850769621777173</v>
       </c>
       <c r="G235" s="2">
         <f>AVERAGE(H232:H234)</f>
@@ -7116,10 +6588,6 @@
       <c r="D237" s="2">
         <v>1</v>
       </c>
-      <c r="E237" s="2">
-        <f>LN(I237/G237)</f>
-        <v>-0.64435701639051324</v>
-      </c>
       <c r="G237" s="2">
         <v>9308.4266666666663</v>
       </c>
@@ -7143,10 +6611,6 @@
       <c r="D238" s="2">
         <v>2</v>
       </c>
-      <c r="E238" s="2">
-        <f>LN(I238/G238)</f>
-        <v>0.18232155679395459</v>
-      </c>
       <c r="G238" s="2">
         <v>9308.4266666666663</v>
       </c>
@@ -7170,10 +6634,6 @@
       <c r="D239" s="2">
         <v>3</v>
       </c>
-      <c r="E239" s="2">
-        <f t="shared" ref="E238:E239" si="56">LN(I239/G239)</f>
-        <v>-0.79850769621777173</v>
-      </c>
       <c r="G239" s="2">
         <v>9308.4266666666663</v>
       </c>
@@ -7198,8 +6658,8 @@
         <v>4</v>
       </c>
       <c r="E240" s="2">
-        <f>AVERAGE(E237:E239)</f>
-        <v>-0.42018105193811017</v>
+        <f>LN(I240/G240)</f>
+        <v>-0.32158362412746216</v>
       </c>
       <c r="G240" s="2">
         <f>AVERAGE(H237:H239)</f>
@@ -7249,9 +6709,6 @@
       <c r="D242" s="2">
         <v>1</v>
       </c>
-      <c r="E242" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G242" s="2">
         <v>2792.5279999999998</v>
       </c>
@@ -7272,10 +6729,6 @@
       <c r="D243" s="2">
         <v>2</v>
       </c>
-      <c r="E243" s="2">
-        <f>LN(I243/G243)</f>
-        <v>0.40546510810816438</v>
-      </c>
       <c r="G243" s="2">
         <v>2792.5279999999998</v>
       </c>
@@ -7299,10 +6752,6 @@
       <c r="D244" s="2">
         <v>3</v>
       </c>
-      <c r="E244" s="2">
-        <f>LN(I244/G244)</f>
-        <v>-0.2876820724517809</v>
-      </c>
       <c r="G244" s="2">
         <v>2792.5279999999998</v>
       </c>
@@ -7327,8 +6776,8 @@
         <v>4</v>
       </c>
       <c r="E245" s="2">
-        <f>AVERAGE(E242:E244)</f>
-        <v>5.8891517828191742E-2</v>
+        <f>LN(I245/G245)</f>
+        <v>0.11778303565638346</v>
       </c>
       <c r="G245" s="2">
         <f>AVERAGE(H242:H244)</f>
@@ -7378,9 +6827,6 @@
       <c r="D247" s="2">
         <v>1</v>
       </c>
-      <c r="E247" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G247" s="2">
         <v>2559.8173333333334</v>
       </c>
@@ -7401,10 +6847,6 @@
       <c r="D248" s="2">
         <v>2</v>
       </c>
-      <c r="E248" s="2">
-        <f>LN(I248/G248)</f>
-        <v>-1.2992829841302609</v>
-      </c>
       <c r="G248" s="2">
         <v>2559.8173333333334</v>
       </c>
@@ -7428,10 +6870,6 @@
       <c r="D249" s="2">
         <v>3</v>
       </c>
-      <c r="E249" s="2">
-        <f>LN(I249/G249)</f>
-        <v>-1.2992829841302609</v>
-      </c>
       <c r="G249" s="2">
         <v>2559.8173333333334</v>
       </c>
@@ -7456,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="E250" s="2">
-        <f>AVERAGE(E247:E249)</f>
+        <f>LN(I250/G250)</f>
         <v>-1.2992829841302609</v>
       </c>
       <c r="G250" s="2">
@@ -7507,9 +6945,7 @@
       <c r="D252" s="2">
         <v>1</v>
       </c>
-      <c r="E252" s="6">
-        <v>0</v>
-      </c>
+      <c r="E252" s="6"/>
       <c r="G252" s="6">
         <v>0</v>
       </c>
@@ -7531,9 +6967,7 @@
       <c r="D253" s="2">
         <v>2</v>
       </c>
-      <c r="E253" s="6">
-        <v>0</v>
-      </c>
+      <c r="E253" s="6"/>
       <c r="G253" s="6">
         <v>0</v>
       </c>
@@ -7557,9 +6991,7 @@
       <c r="D254" s="2">
         <v>3</v>
       </c>
-      <c r="E254" s="6">
-        <v>0</v>
-      </c>
+      <c r="E254" s="6"/>
       <c r="G254" s="6">
         <v>0</v>
       </c>
@@ -7625,9 +7057,6 @@
       <c r="D257" s="2">
         <v>1</v>
       </c>
-      <c r="E257" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G257" s="2">
         <v>2559.817333333333</v>
       </c>
@@ -7648,10 +7077,6 @@
       <c r="D258" s="2">
         <v>2</v>
       </c>
-      <c r="E258" s="2">
-        <f>LN(I258/G258)</f>
-        <v>-1.2992829841302607</v>
-      </c>
       <c r="G258" s="2">
         <v>2559.817333333333</v>
       </c>
@@ -7675,10 +7100,6 @@
       <c r="D259" s="2">
         <v>3</v>
       </c>
-      <c r="E259" s="2">
-        <f>LN(I259/G259)</f>
-        <v>-0.60613580357031538</v>
-      </c>
       <c r="G259" s="2">
         <v>2559.817333333333</v>
       </c>
@@ -7703,8 +7124,8 @@
         <v>4</v>
       </c>
       <c r="E260" s="2">
-        <f>AVERAGE(E257:E259)</f>
-        <v>-0.95270939385028797</v>
+        <f>LN(I260/G260)</f>
+        <v>-0.89381787602209639</v>
       </c>
       <c r="G260" s="2">
         <f>AVERAGE(H257:H259)</f>
@@ -7754,9 +7175,6 @@
       <c r="D262" s="2">
         <v>1</v>
       </c>
-      <c r="E262" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G262" s="2">
         <v>6748.6093333333338</v>
       </c>
@@ -7777,10 +7195,6 @@
       <c r="D263" s="2">
         <v>2</v>
       </c>
-      <c r="E263" s="2">
-        <f>LN(I263/G263)</f>
-        <v>-0.8823891801984739</v>
-      </c>
       <c r="G263" s="2">
         <v>6748.6093333333338</v>
       </c>
@@ -7804,10 +7218,6 @@
       <c r="D264" s="2">
         <v>3</v>
       </c>
-      <c r="E264" s="2">
-        <f>LN(I264/G264)</f>
-        <v>3.39015516756812E-2</v>
-      </c>
       <c r="G264" s="2">
         <v>6748.6093333333338</v>
       </c>
@@ -7832,8 +7242,8 @@
         <v>4</v>
       </c>
       <c r="E265" s="2">
-        <f>AVERAGE(E262:E264)</f>
-        <v>-0.42424381426139635</v>
+        <f>LN(I265/G265)</f>
+        <v>-0.32277339226305102</v>
       </c>
       <c r="G265" s="2">
         <f>AVERAGE(H262:H264)</f>
@@ -7883,9 +7293,6 @@
       <c r="D267" s="2">
         <v>1</v>
       </c>
-      <c r="E267" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G267" s="2">
         <v>6050.4773333333333</v>
       </c>
@@ -7906,10 +7313,6 @@
       <c r="D268" s="2">
         <v>2</v>
       </c>
-      <c r="E268" s="2">
-        <f>LN(I268/G268)</f>
-        <v>-0.21357410029805904</v>
-      </c>
       <c r="G268" s="2">
         <v>6050.4773333333333</v>
       </c>
@@ -7933,10 +7336,6 @@
       <c r="D269" s="2">
         <v>3</v>
       </c>
-      <c r="E269" s="2">
-        <f>LN(I269/G269)</f>
-        <v>-2.1594842493533726</v>
-      </c>
       <c r="G269" s="2">
         <v>6050.4773333333333</v>
       </c>
@@ -7961,8 +7360,8 @@
         <v>4</v>
       </c>
       <c r="E270" s="2">
-        <f>AVERAGE(E267:E269)</f>
-        <v>-1.1865291748257158</v>
+        <f>LN(I270/G270)</f>
+        <v>-0.77318988823348178</v>
       </c>
       <c r="G270" s="2">
         <f>AVERAGE(H267:H269)</f>
@@ -8012,9 +7411,6 @@
       <c r="D272" s="2">
         <v>1</v>
       </c>
-      <c r="E272" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G272" s="2">
         <v>23736.487999999998</v>
       </c>
@@ -8035,10 +7431,6 @@
       <c r="D273" s="2">
         <v>2</v>
       </c>
-      <c r="E273" s="2">
-        <f>LN(I273/G273)</f>
-        <v>8.4557388028063174E-2</v>
-      </c>
       <c r="G273" s="2">
         <v>23736.487999999998</v>
       </c>
@@ -8062,10 +7454,6 @@
       <c r="D274" s="2">
         <v>3</v>
       </c>
-      <c r="E274" s="2">
-        <f>LN(I274/G274)</f>
-        <v>-2.9852963149681045E-2</v>
-      </c>
       <c r="G274" s="2">
         <v>23736.487999999998</v>
       </c>
@@ -8090,8 +7478,8 @@
         <v>4</v>
       </c>
       <c r="E275" s="2">
-        <f>AVERAGE(E272:E274)</f>
-        <v>2.7352212439191066E-2</v>
+        <f>LN(I275/G275)</f>
+        <v>2.8987536873252406E-2</v>
       </c>
       <c r="G275" s="2">
         <f>AVERAGE(H272:H274)</f>
@@ -8141,9 +7529,7 @@
       <c r="D277" s="2">
         <v>1</v>
       </c>
-      <c r="E277" s="6">
-        <v>0</v>
-      </c>
+      <c r="E277" s="6"/>
       <c r="G277" s="6">
         <v>0</v>
       </c>
@@ -8167,9 +7553,7 @@
       <c r="D278" s="2">
         <v>2</v>
       </c>
-      <c r="E278" s="6">
-        <v>0</v>
-      </c>
+      <c r="E278" s="6"/>
       <c r="G278" s="6">
         <v>0</v>
       </c>
@@ -8193,9 +7577,7 @@
       <c r="D279" s="2">
         <v>3</v>
       </c>
-      <c r="E279" s="6">
-        <v>0</v>
-      </c>
+      <c r="E279" s="6"/>
       <c r="G279" s="6">
         <v>0</v>
       </c>
@@ -8261,9 +7643,6 @@
       <c r="D282" s="2">
         <v>1</v>
       </c>
-      <c r="E282" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G282" s="8">
         <v>6050.4773333333324</v>
       </c>
@@ -8284,10 +7663,6 @@
       <c r="D283" s="2">
         <v>2</v>
       </c>
-      <c r="E283" s="2">
-        <f>LN(I283/G283)</f>
-        <v>-0.3677247801253174</v>
-      </c>
       <c r="G283" s="8">
         <v>6050.4773333333324</v>
       </c>
@@ -8311,10 +7686,6 @@
       <c r="D284" s="2">
         <v>3</v>
       </c>
-      <c r="E284" s="2">
-        <f>LN(I284/G284)</f>
-        <v>3.7740327982847113E-2</v>
-      </c>
       <c r="G284" s="8">
         <v>6050.4773333333324</v>
       </c>
@@ -8339,8 +7710,8 @@
         <v>4</v>
       </c>
       <c r="E285" s="2">
-        <f>AVERAGE(E282:E284)</f>
-        <v>-0.16499222607123515</v>
+        <f>LN(I285/G285)</f>
+        <v>-0.14458122881110744</v>
       </c>
       <c r="G285" s="2">
         <f>AVERAGE(H282:H284)</f>
@@ -8390,9 +7761,7 @@
       <c r="D287" s="2">
         <v>1</v>
       </c>
-      <c r="E287" s="6">
-        <v>0</v>
-      </c>
+      <c r="E287" s="6"/>
       <c r="G287" s="6">
         <v>0</v>
       </c>
@@ -8416,9 +7785,7 @@
       <c r="D288" s="2">
         <v>2</v>
       </c>
-      <c r="E288" s="6">
-        <v>0</v>
-      </c>
+      <c r="E288" s="6"/>
       <c r="G288" s="6">
         <v>0</v>
       </c>
@@ -8442,9 +7809,7 @@
       <c r="D289" s="2">
         <v>3</v>
       </c>
-      <c r="E289" s="6">
-        <v>0</v>
-      </c>
+      <c r="E289" s="6"/>
       <c r="G289" s="6">
         <v>0</v>
       </c>
@@ -8510,9 +7875,6 @@
       <c r="D292" s="2">
         <v>1</v>
       </c>
-      <c r="E292" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G292" s="2">
         <v>7214.0306666666656</v>
       </c>
@@ -8533,10 +7895,6 @@
       <c r="D293" s="2">
         <v>2</v>
       </c>
-      <c r="E293" s="2">
-        <f>LN(I293/G293)</f>
-        <v>0.37267528528517352</v>
-      </c>
       <c r="G293" s="2">
         <v>7214.0306666666656</v>
       </c>
@@ -8560,10 +7918,6 @@
       <c r="D294" s="2">
         <v>3</v>
       </c>
-      <c r="E294" s="2">
-        <f>LN(I294/G294)</f>
-        <v>6.2520356981334138E-2</v>
-      </c>
       <c r="G294" s="2">
         <v>7214.0306666666656</v>
       </c>
@@ -8588,8 +7942,8 @@
         <v>4</v>
       </c>
       <c r="E295" s="2">
-        <f>AVERAGE(E292:E294)</f>
-        <v>0.21759782113325382</v>
+        <f>LN(I295/G295)</f>
+        <v>0.22957444164450036</v>
       </c>
       <c r="G295" s="2">
         <f>AVERAGE(H292:H294)</f>
@@ -8639,9 +7993,6 @@
       <c r="D297" s="2">
         <v>1</v>
       </c>
-      <c r="E297" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G297" s="2">
         <v>6283.1879999999992</v>
       </c>
@@ -8662,10 +8013,6 @@
       <c r="D298" s="2">
         <v>2</v>
       </c>
-      <c r="E298" s="2">
-        <f>LN(I298/G298)</f>
-        <v>-0.25131442828090594</v>
-      </c>
       <c r="G298" s="2">
         <v>6283.1879999999992</v>
       </c>
@@ -8689,10 +8036,6 @@
       <c r="D299" s="2">
         <v>3</v>
       </c>
-      <c r="E299" s="2">
-        <f>LN(I299/G299)</f>
-        <v>-0.58778666490211895</v>
-      </c>
       <c r="G299" s="2">
         <v>6283.1879999999992</v>
       </c>
@@ -8717,8 +8060,8 @@
         <v>4</v>
       </c>
       <c r="E300" s="2">
-        <f>AVERAGE(E297:E299)</f>
-        <v>-0.41955054659151247</v>
+        <f>LN(I300/G300)</f>
+        <v>-0.40546510810816444</v>
       </c>
       <c r="G300" s="2">
         <f>AVERAGE(H297:H299)</f>
@@ -8768,9 +8111,6 @@
       <c r="D302" s="2">
         <v>1</v>
       </c>
-      <c r="E302" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G302" s="2">
         <v>232.71066666666664</v>
       </c>
@@ -8791,10 +8131,6 @@
       <c r="D303" s="2">
         <v>2</v>
       </c>
-      <c r="E303" s="2">
-        <f>LN(I303/G303)</f>
-        <v>2.7080502011022101</v>
-      </c>
       <c r="G303" s="2">
         <v>232.71066666666664</v>
       </c>
@@ -8818,10 +8154,6 @@
       <c r="D304" s="2">
         <v>3</v>
       </c>
-      <c r="E304" s="2">
-        <f>LN(I304/G304)</f>
-        <v>1.0986122886681098</v>
-      </c>
       <c r="G304" s="2">
         <v>232.71066666666664</v>
       </c>
@@ -8846,8 +8178,8 @@
         <v>4</v>
       </c>
       <c r="E305" s="2">
-        <f>AVERAGE(E302:E304)</f>
-        <v>1.9033312448851598</v>
+        <f>LN(I305/G305)</f>
+        <v>2.1972245773362196</v>
       </c>
       <c r="G305" s="2">
         <f>AVERAGE(H302:H304)</f>
@@ -8897,9 +8229,6 @@
       <c r="D307" s="2">
         <v>1</v>
       </c>
-      <c r="E307" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G307" s="2">
         <v>1628.9746666666663</v>
       </c>
@@ -8920,10 +8249,6 @@
       <c r="D308" s="2">
         <v>2</v>
       </c>
-      <c r="E308" s="2">
-        <f>LN(I308/G308)</f>
-        <v>1.09861228866811</v>
-      </c>
       <c r="G308" s="2">
         <v>1628.9746666666663</v>
       </c>
@@ -8947,10 +8272,6 @@
       <c r="D309" s="2">
         <v>3</v>
       </c>
-      <c r="E309" s="2">
-        <f>LN(I309/G309)</f>
-        <v>0.53899650073268723</v>
-      </c>
       <c r="G309" s="2">
         <v>1628.9746666666663</v>
       </c>
@@ -8975,8 +8296,8 @@
         <v>4</v>
       </c>
       <c r="E310" s="2">
-        <f>AVERAGE(E307:E309)</f>
-        <v>0.81880439470039867</v>
+        <f>LN(I310/G310)</f>
+        <v>0.85745023185122182</v>
       </c>
       <c r="G310" s="2">
         <f>AVERAGE(H307:H309)</f>
@@ -9026,9 +8347,6 @@
       <c r="D312" s="2">
         <v>1</v>
       </c>
-      <c r="E312" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G312" s="2">
         <v>3956.0813333333331</v>
       </c>
@@ -9049,10 +8367,6 @@
       <c r="D313" s="2">
         <v>2</v>
       </c>
-      <c r="E313" s="2">
-        <f>LN(I313/G313)</f>
-        <v>-0.3483066942682157</v>
-      </c>
       <c r="G313" s="2">
         <v>3956.0813333333331</v>
       </c>
@@ -9076,10 +8390,6 @@
       <c r="D314" s="2">
         <v>3</v>
       </c>
-      <c r="E314" s="2">
-        <f>LN(I314/G314)</f>
-        <v>-1.041453874828161</v>
-      </c>
       <c r="G314" s="2">
         <v>3956.0813333333331</v>
       </c>
@@ -9104,8 +8414,8 @@
         <v>4</v>
       </c>
       <c r="E315" s="2">
-        <f>AVERAGE(E312:E314)</f>
-        <v>-0.69488028454818829</v>
+        <f>LN(I315/G315)</f>
+        <v>-0.63598876671999671</v>
       </c>
       <c r="G315" s="2">
         <f>AVERAGE(H312:H314)</f>
@@ -9155,9 +8465,6 @@
       <c r="D317" s="2">
         <v>1</v>
       </c>
-      <c r="E317" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G317" s="2">
         <v>2327.1066666666666</v>
       </c>
@@ -9178,10 +8485,6 @@
       <c r="D318" s="2">
         <v>2</v>
       </c>
-      <c r="E318" s="2">
-        <f>LN(I318/G318)</f>
-        <v>0.40546510810816438</v>
-      </c>
       <c r="G318" s="2">
         <v>2327.1066666666666</v>
       </c>
@@ -9205,10 +8508,6 @@
       <c r="D319" s="2">
         <v>3</v>
       </c>
-      <c r="E319" s="2">
-        <f>LN(I319/G319)</f>
-        <v>0.18232155679395459</v>
-      </c>
       <c r="G319" s="2">
         <v>2327.1066666666666</v>
       </c>
@@ -9233,8 +8532,8 @@
         <v>4</v>
       </c>
       <c r="E320" s="2">
-        <f>AVERAGE(E317:E319)</f>
-        <v>0.29389333245105947</v>
+        <f>LN(I320/G320)</f>
+        <v>0.30010459245033816</v>
       </c>
       <c r="G320" s="2">
         <f>AVERAGE(H317:H319)</f>
@@ -9274,6 +8573,7 @@
   </sheetData>
   <autoFilter ref="A1:E321" xr:uid="{1BE0D699-FEAE-4E31-81F7-5C08EC8CDA6A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>